--- a/data/xlsx/02242019.xlsx
+++ b/data/xlsx/02242019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48F9A90-39C8-3B47-BC49-EC339911772B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94D6F70-4763-0B4D-937C-D4BE805D540F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,10 +340,6 @@
     <t>CALIFORNIA CODE OF REGULATIONS</t>
   </si>
   <si>
-    <t>(FW-22-S) REPORTS HARRASSING AND UNWANTED CONTACT FROM A STUDENT.
-SUSPECT: MW-LATE 20S-THIN BUILD-LIGHT BROWN HAIR-5 FOOT 7</t>
-  </si>
-  <si>
     <t>VEHICLE CODE VIOLATION</t>
   </si>
   <si>
@@ -372,13 +368,16 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>(FW-22-S) REPORTS HARRASSING AND UNWANTED CONTACT FROM A STUDENT. SUSPECT: MW-LATE 20S-THIN BUILD-LIGHT BROWN HAIR-5 FOOT 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -392,11 +391,6 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -426,16 +420,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -787,11 +780,9 @@
     <col min="3" max="3" width="13"/>
     <col min="4" max="5" width="19"/>
     <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="10" width="21"/>
-    <col min="11" max="11" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -808,18 +799,17 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
         <v>43520</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -843,11 +833,9 @@
       <c r="H2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
         <v>43520</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -871,11 +859,9 @@
       <c r="H3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
         <v>43520</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -888,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>37.875520000000002</v>
@@ -897,12 +883,11 @@
         <v>-122.256845</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
         <v>43520</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -924,12 +909,11 @@
         <v>-122.26791299999999</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
         <v>43520</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -951,12 +935,11 @@
         <v>-122.26087800000001</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
         <v>43520</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -969,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7">
         <v>37.883299000000001</v>
@@ -978,12 +961,11 @@
         <v>-122.300192</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
         <v>43520</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1005,12 +987,11 @@
         <v>-122.25484</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
         <v>43520</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1032,12 +1013,11 @@
         <v>-122.259395</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
         <v>43520</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1059,12 +1039,11 @@
         <v>-122.264364</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4">
         <v>43520</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1086,12 +1065,11 @@
         <v>-122.293001</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4">
         <v>43520</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1104,7 +1082,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12">
         <v>37.865551000000004</v>
@@ -1113,12 +1091,11 @@
         <v>-122.25515900000001</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4">
         <v>43520</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1140,12 +1117,11 @@
         <v>-122.248801</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4">
         <v>43520</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1167,12 +1143,11 @@
         <v>-122.258337</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
         <v>43520</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1190,16 +1165,15 @@
       <c r="F15">
         <v>37.868706000000003</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>-122.259184</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
         <v>43520</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1212,7 +1186,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>37.866630999999998</v>
@@ -1221,13 +1195,11 @@
         <v>-122.26108000000001</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4">
         <v>43520</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1251,11 +1223,9 @@
       <c r="H17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="5">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4">
         <v>43520</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1268,7 +1238,7 @@
         <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>37.883270000000003</v>
@@ -1277,12 +1247,11 @@
         <v>-122.30153</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4">
         <v>43520</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1304,12 +1273,11 @@
         <v>-122.265027</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4">
         <v>43520</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1331,12 +1299,11 @@
         <v>-122.266457</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="84">
-      <c r="A21" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="84">
+      <c r="A21" s="4">
         <v>43520</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1357,14 +1324,12 @@
       <c r="G21">
         <v>-122.254812</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="5">
+      <c r="H21" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
         <v>43520</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1386,12 +1351,11 @@
         <v>-122.25967</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
         <v>43520</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1413,22 +1377,21 @@
         <v>-122.254698</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
         <v>43520</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>72</v>
@@ -1440,12 +1403,11 @@
         <v>-122.304699</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4">
         <v>43520</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1467,12 +1429,11 @@
         <v>-122.262164</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4">
         <v>43520</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1494,12 +1455,11 @@
         <v>-122.262164</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4">
         <v>43520</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1512,7 +1472,7 @@
         <v>83</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27">
         <v>37.868682</v>
@@ -1521,12 +1481,11 @@
         <v>-122.252272</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4">
         <v>43520</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1548,12 +1507,11 @@
         <v>-122.247597</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4">
         <v>43520</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1566,7 +1524,7 @@
         <v>90</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>37.865551000000004</v>
@@ -1575,12 +1533,8 @@
         <v>-122.25515900000001</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="3"/>
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/02242019.xlsx
+++ b/data/xlsx/02242019.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94D6F70-4763-0B4D-937C-D4BE805D540F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB98790-960D-0A46-818B-137B8411AA5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="02242019" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -377,6 +377,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -427,8 +430,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -809,7 +812,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43520</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -835,7 +838,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43520</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -861,7 +864,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43520</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -887,7 +890,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>43520</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -913,7 +916,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>43520</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -939,7 +942,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>43520</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -965,7 +968,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>43520</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -991,7 +994,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>43520</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1017,7 +1020,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>43520</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1043,7 +1046,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>43520</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1069,7 +1072,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>43520</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1095,7 +1098,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>43520</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1121,7 +1124,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>43520</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1147,7 +1150,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>43520</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1165,7 +1168,7 @@
       <c r="F15">
         <v>37.868706000000003</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>-122.259184</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -1173,7 +1176,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>43520</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1199,7 +1202,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>43520</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1225,7 +1228,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>43520</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1251,7 +1254,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>43520</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1277,7 +1280,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>43520</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1303,7 +1306,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="84">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>43520</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1329,7 +1332,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>43520</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1355,7 +1358,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>43520</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1381,7 +1384,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>43520</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1407,7 +1410,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>43520</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1433,7 +1436,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>43520</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1459,7 +1462,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>43520</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1485,7 +1488,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>43520</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1511,7 +1514,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>43520</v>
       </c>
       <c r="B29" s="2" t="s">
